--- a/turtle/data/turtle_trade_analysis.xlsx
+++ b/turtle/data/turtle_trade_analysis.xlsx
@@ -446,22 +446,22 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>27668.96922158263</v>
+        <v>6541.302856388976</v>
       </c>
       <c r="E2">
-        <v>-10880.63126210023</v>
+        <v>-4473.441410231013</v>
       </c>
       <c r="F2">
-        <v>-0.1764916996835718</v>
+        <v>-0.1261950532670843</v>
       </c>
       <c r="G2">
-        <v>0.1069278149724358</v>
+        <v>-0.02426494377300792</v>
       </c>
     </row>
   </sheetData>
@@ -496,155 +496,155 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>44139</v>
+        <v>44644</v>
       </c>
       <c r="B2" s="2">
-        <v>44225</v>
+        <v>44673</v>
       </c>
       <c r="C2">
-        <v>38.986</v>
+        <v>69.084</v>
       </c>
       <c r="D2">
-        <v>58.5387</v>
+        <v>62.964</v>
       </c>
       <c r="E2">
-        <v>50153.03436880022</v>
+        <v>-8858.912662903598</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>44326</v>
+        <v>44785</v>
       </c>
       <c r="B3" s="2">
-        <v>44347</v>
+        <v>44879</v>
       </c>
       <c r="C3">
-        <v>72.1746</v>
+        <v>66.22569999999999</v>
       </c>
       <c r="D3">
-        <v>62.1819</v>
+        <v>68.62679999999999</v>
       </c>
       <c r="E3">
-        <v>-20754.46477012346</v>
+        <v>3297.380050078446</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>44372</v>
+        <v>44895</v>
       </c>
       <c r="B4" s="2">
-        <v>44405</v>
+        <v>44925</v>
       </c>
       <c r="C4">
-        <v>72.5483</v>
+        <v>77.25489999999999</v>
       </c>
       <c r="D4">
-        <v>81.40770000000001</v>
+        <v>71.45820000000001</v>
       </c>
       <c r="E4">
-        <v>15737.04877912831</v>
+        <v>-7057.972713883275</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>44418</v>
+        <v>44973</v>
       </c>
       <c r="B5" s="2">
-        <v>44466</v>
+        <v>45061</v>
       </c>
       <c r="C5">
-        <v>109.2719</v>
+        <v>84.0219</v>
       </c>
       <c r="D5">
-        <v>99.7227</v>
+        <v>96.8022</v>
       </c>
       <c r="E5">
-        <v>-12613.40386503679</v>
+        <v>13206.26218254555</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>44736</v>
+        <v>45149</v>
       </c>
       <c r="B6" s="2">
-        <v>44767</v>
+        <v>45223</v>
       </c>
       <c r="C6">
-        <v>70.599</v>
+        <v>104.8986</v>
       </c>
       <c r="D6">
-        <v>65.83499999999999</v>
+        <v>103.3461</v>
       </c>
       <c r="E6">
-        <v>-8869.944392363377</v>
+        <v>-1477.886720967193</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>44771</v>
+        <v>45286</v>
       </c>
       <c r="B7" s="2">
-        <v>44827</v>
+        <v>45394</v>
       </c>
       <c r="C7">
-        <v>78.87090000000001</v>
+        <v>104.7774</v>
       </c>
       <c r="D7">
-        <v>96.45570000000001</v>
+        <v>108.108</v>
       </c>
       <c r="E7">
-        <v>27271.95044776134</v>
+        <v>3120.266336542932</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>44900</v>
+        <v>45470</v>
       </c>
       <c r="B8" s="2">
-        <v>44981</v>
+        <v>45502</v>
       </c>
       <c r="C8">
-        <v>93.01090000000001</v>
+        <v>114.8471</v>
       </c>
       <c r="D8">
-        <v>103.9203</v>
+        <v>114.2163</v>
       </c>
       <c r="E8">
-        <v>17513.84329064065</v>
+        <v>-555.4582012816882</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45419</v>
+        <v>45560</v>
       </c>
       <c r="B9" s="2">
-        <v>45446</v>
+        <v>45608</v>
       </c>
       <c r="C9">
-        <v>64.9329</v>
+        <v>119.7658</v>
       </c>
       <c r="D9">
-        <v>62.5581</v>
+        <v>112.6224</v>
       </c>
       <c r="E9">
-        <v>-6090.226194362971</v>
+        <v>-5984.471517566171</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45565</v>
+        <v>45639</v>
       </c>
       <c r="B10" s="2">
-        <v>45621</v>
+        <v>45671</v>
       </c>
       <c r="C10">
-        <v>60.5697</v>
+        <v>122.6342</v>
       </c>
       <c r="D10">
-        <v>58.2714</v>
+        <v>118.8495</v>
       </c>
       <c r="E10">
-        <v>-6075.117088614538</v>
+        <v>-2905.946644784152</v>
       </c>
     </row>
   </sheetData>
